--- a/biology/Botanique/Chara_(algue)/Chara_(algue).xlsx
+++ b/biology/Botanique/Chara_(algue)/Chara_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chara est un genre d'algues vertes évoluées de la famille des Characeae. 
 Ces végétaux sont majoritairement des algues d'eau douce, seules quelques espèces vivent en eaux saumâtres, trouvées dans des habitats littoraux ou dans des zones humides exposées à l'influence du sel.
 Elles appartiennent au groupe non encore bien formalisé des Charophyta (et sont de l'ordre des Charales). Linné a créé le genre Chara en 1753.
-Présentes depuis au moins le Silurien (430 à 410 millions d'années)[1], elles semblent être les algues les plus proches des plantes vertes terrestres (Embryophyta). Les botanistes sont en train d'étudier leurs relations génétiques avec d'autres groupes végétaux pour confirmer ou infirmer cette hypothèse.
+Présentes depuis au moins le Silurien (430 à 410 millions d'années), elles semblent être les algues les plus proches des plantes vertes terrestres (Embryophyta). Les botanistes sont en train d'étudier leurs relations génétiques avec d'autres groupes végétaux pour confirmer ou infirmer cette hypothèse.
 Ces plantes sont en régression ou ont déjà disparu d'une grande partie de leur aire naturelle et potentielle de répartition, en raison de la destruction de leur habitat, mais surtout en raison de l'eutrophisation croissante et générale de l'environnement. 
-En Europe, dont en France, elles sont encore mal connues, malgré l’importance de ce groupe pour la qualification et désignation de communautés végétales d’habitat d’intérêt communautaire ou en tant qu'espèces bioindicatrices[2]. Mais des groupes s'organisent, autour des conservatoires botaniques, du Muséum et de l'Agence nationale de la biodiversité pour compléter les inventaires et mieux les connaître.
-Par exemple une première liste[3] de Characées a été validée pour la Picardie, en complément de la publication du  « Guide des végétations des zones humides en Picardie » [4] et à cette occasion la Picardie s'est avérée abriter des populations comprenant près de 80 % des espèces de Charophytes connues en France[5] !
+En Europe, dont en France, elles sont encore mal connues, malgré l’importance de ce groupe pour la qualification et désignation de communautés végétales d’habitat d’intérêt communautaire ou en tant qu'espèces bioindicatrices. Mais des groupes s'organisent, autour des conservatoires botaniques, du Muséum et de l'Agence nationale de la biodiversité pour compléter les inventaires et mieux les connaître.
+Par exemple une première liste de Characées a été validée pour la Picardie, en complément de la publication du  « Guide des végétations des zones humides en Picardie »  et à cette occasion la Picardie s'est avérée abriter des populations comprenant près de 80 % des espèces de Charophytes connues en France !
 L'étude des Characées est la charologie.
 </t>
         </is>
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charas et Characées sont des algues multicellulaires et branchues, caractérisées par des cellules géantes (macroscopiques, d'une longueur de 1 à 2 cm pour chaque cellule de la tige principale). Ces cellules sont généralement cortiquées ; chacune est constituée d'une grande vacuole centrale, d'un endoplasme, et du cytoplasme qui contient un ou plusieurs noyau(x) et qui est animé d'un constant mouvement, dit de « cyclose ». Cette cyclose est caractérisée par une vitesse de flux au moins huit fois plus rapide (jusqu'à 70 µm/s) que celle observée chez d'autres plantes telle que l'élodée. Ceci fait des Characées un intéressant modèle de laboratoire pour l'étude du phénomène de cyclose.
 Sous la membrane plasmique, l'ectoplasme (film cytosolique sans cyclose) tapissé de chloroplastes est responsable de la photosynthèse.
@@ -557,9 +571,11 @@
           <t>Espèces du genre Chara</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On en connaît environ 400 espèces dans le monde (33 en Grande-Bretagne et Irlande selon Groves et Bullock-Webster [6],[7]) cependant Stewart and Church ont réduit ce nombre à 21[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On en connaît environ 400 espèces dans le monde (33 en Grande-Bretagne et Irlande selon Groves et Bullock-Webster ,) cependant Stewart and Church ont réduit ce nombre à 21.
 </t>
         </is>
       </c>
@@ -588,11 +604,13 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormis pour quelques espèces qui survivent en eau saumâtre ou dans des habitats maritimes périodiquement exposés aux embruns, les Characées sont des plantes aquatiques d'eau douce et claire, stagnante ou à très faible courant. Elles apprécient les eaux peu profondes (dures, éventuellement légèrement saumâtres et/ou parfois très calcaires) et ensoleillées. 
 On les trouve parfois dans des bassins artificiels où par évaporation l'eau devient plus dure.
-On les trouve dans les mares, fonds de carrière inondés, lacs, en herbiers parfois denses, ou en situation de plante pionnière, éventuellement éphémère[9].
+On les trouve dans les mares, fonds de carrière inondés, lacs, en herbiers parfois denses, ou en situation de plante pionnière, éventuellement éphémère.
 Ces plantes étant caractéristiques de milieux faiblement à moyennement riches en éléments nutritifs, on les considère comme un bon bioindicateur de qualité de l'eau du point de vue de l'oligotrophie et d'une faible turbidité. L'eutrophisation est un des facteurs responsables de leur forte régression.
 </t>
         </is>
@@ -622,7 +640,9 @@
           <t>Traits de vie et reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les organes reproducteurs sont disposés à l'aisselle des verticilles.
 Les anthéridies et oogonies sont protégées par une couche de cellules (stériles à maturité). L'oogonium est de forme oblongue et se compose d'un seul "œuf", tandis que l'antheridium, sphérique, est composé de cellules produisant les spermatozoïdes. Ce qui fait des Characées les plus complexes de toutes les algues vertes et peut-être des descendantes directes d'un ancêtre qui pourrait aussi être celui de toutes les plantes terrestres.
@@ -657,9 +677,11 @@
           <t>Biominéralisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité photosynthétique des Charophytes conduit à la précipitation plus ou moins cristallisée de carbonates de calcium autochtones[10],[11] produisant une calcification intracellulaire de leur thalle et des « cellules en spirales » entourant l'oospore, appelées gyrogonites[12]. Cette incrustation est une biominéralisation[13] étudiée en paléohydrologie par des investigations isotopiques[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité photosynthétique des Charophytes conduit à la précipitation plus ou moins cristallisée de carbonates de calcium autochtones, produisant une calcification intracellulaire de leur thalle et des « cellules en spirales » entourant l'oospore, appelées gyrogonites. Cette incrustation est une biominéralisation étudiée en paléohydrologie par des investigations isotopiques.
 </t>
         </is>
       </c>
@@ -690,8 +712,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Îles britanniques
-Selon Stewart &amp; Church (1992)[8]:
+          <t>Îles britanniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Stewart &amp; Church (1992):
 Chara baltica Bruz.
 Chara canescens Desv. &amp; Lois.
 Chara connivens Salzm. ex A.Braun
@@ -712,8 +739,43 @@
 Nitellopsis obtusa (Desv.) J.Groves
 Topella intricata (Trent. ex Roth) Leonh. (à vérifier)
 Tolypella nidifica (O.F.Müll.) Leonh. (= Tolypella nidifica var. nidifica)
-Tolypella prolifera (Ziz. ex A.Braun) Leonh.
-Picardie (liste mise à jour 2019)
+Tolypella prolifera (Ziz. ex A.Braun) Leonh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Picardie (liste mise à jour 2019)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chara aspera Dethard. ex Willd.
 Chara canescens Desv. &amp; Loisel.
 Chara connivens Salzm. ex A. Braun
@@ -747,45 +809,87 @@
 Nitella translucens (Pers.) C. Agardh
 Tolypella glomerata (Desv.) Leonh.
 Tolypella intricata (Trentep. ex Roth) Leonh.
-Autres régions
-Family Chaetosphaeridiaceae[14]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres régions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Family Chaetosphaeridiaceae
 Chaetosphaeridium globosum (Nordst.) Klebahn, 1893
 Chaetosphaeridium ovalis G. M. Smith, 1916
 Chaetosphaeridium pringsheimii Klebahn, 1892
-Conochaete comosa Klebahn, 1893[15]
+Conochaete comosa Klebahn, 1893
 Diplochaete solitaria Collins, 1901
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Chara_(algue)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chara_(algue)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Irlande
-Co. Antrim[16]
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Irlande</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Co. Antrim
 C.aspera Deth. ex Willd. var. aspera
 C. globularis Thuill. var. globularis
 C. vulgaris var. papillata Wallr. ex A. Braun
@@ -797,7 +901,7 @@
 Nitella flexilis (L.) var. flexilis
 Nitella translucens (Pers.) C.A. Ag.
  Tolypella nidifica (O. Mill.) Leonh. var. glomerata (Desv.) R.D.Wood
-Co. Down[16]
+Co. Down
 C. aspera Deth. ex Willd. var. aspera
 C. aspera var. curta (Nolte ex Kützing) Braun ex Leonh.
 C. globularis Thuill. var. globularis
@@ -816,7 +920,7 @@
 Nitella flexilis (L.) var. flexilis
 Nitella translucens (Pers) C.A. Ag.
  Tolypella nidifica (O. Mill.) Leonh. var. glomerata (Desv.) R.D.Wood
-Co. Londonderry[16]
+Co. Londonderry
 C.aspera Deth. ex Willd. var. aspera
 C. vulgaris var. papillata Wallr. ex A. Braun
 C. globularis Thuill. var. globularis
@@ -829,12 +933,47 @@
 Nitella flexilis (L.) var. flexilis
 Nitella translucens (Pers) C.A. Ag.
  Tolypella nidifica (O. Mill.) Leonh. var. glomerata (Desv.) R.D.Wood
-Co. Mayo. Publications récentes à partir de Clare Island[17].
+Co. Mayo. Publications récentes à partir de Clare Island.
 C. virgata Kützing
 N. flexilis (Linnaeus) C.Agardh
 N. translucens (Persoon) C.Agardh
-Liste d’espèces
-Selon World Register of Marine Species                               (12 avril 2018)[18] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chara_(algue)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste d’espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 avril 2018) :
 Chara acanthopitys (A.Braun) R.D.Wood, 1965
 Chara aculeolata F.T.Kützing, 1832
 Chara albaniensis (R.D.Wood) J.C.van Raam, 2010
